--- a/项目/帆软/541/体育.xlsx
+++ b/项目/帆软/541/体育.xlsx
@@ -27,15 +27,6 @@
     <t>负责人</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
     <t>刘瑞</t>
   </si>
   <si>
@@ -125,11 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>营收同比增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总营收（亿元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>营收同比增加</t>
+    <t>张天琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍长海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丽婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +462,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -494,266 +497,267 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="E2" s="1">
         <v>0.8</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="1">
         <v>0.6</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="1">
         <v>0.7</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="1">
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>1.7</v>
       </c>
       <c r="E9" s="1">
         <v>1.2</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="1">
         <v>0.9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>2.1</v>
       </c>
       <c r="E11" s="1">
         <v>0.81</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>2.6</v>
       </c>
       <c r="E12" s="1">
         <v>0.6</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>1.27</v>
       </c>
       <c r="E13" s="1">
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>